--- a/Gastos familia.xlsx
+++ b/Gastos familia.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e4d610a566e371d/Área de Trabalho/FATEC/1º Semestre/Informatica/Aulas/17-08/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8577F19B-5C77-4708-AAD7-9C3110DD2590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ECD09F-C6C6-4683-A0FE-331C96F8F7C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8123FD5D-72A1-49AD-BB40-BF87ECD14C53}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{8123FD5D-72A1-49AD-BB40-BF87ECD14C53}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +29,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Nome da Despesa</t>
   </si>
@@ -85,6 +89,18 @@
   <si>
     <t>Telefone</t>
   </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Soma de Valor (R$)</t>
+  </si>
+  <si>
+    <t>(Tudo)</t>
+  </si>
 </sst>
 </file>
 
@@ -125,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -148,22 +164,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -174,6 +422,1193 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Gastos familia.xlsx]Planilha2!Tabela dinâmica1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$A$4:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Água</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Aluguel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Educação</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Energia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lazer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Saúde</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Supermercado</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Telefone</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Transporte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BE5-4A99-8EB0-03A5FE429F24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="728244592"/>
+        <c:axId val="629163968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="728244592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629163968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="629163968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728244592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18CE8DBC-CBC8-40F8-A7E8-30560B9878AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fatec" refreshedDate="45159.842997916669" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10" xr:uid="{5F18EDCD-0EC9-4CC6-BD9B-AFFEC8D315B8}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabela1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Nome da Despesa" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Aluguel"/>
+        <s v="Energia"/>
+        <s v="Água"/>
+        <s v="Supermercado"/>
+        <s v="Transporte"/>
+        <s v="Educação"/>
+        <s v="Lazer"/>
+        <s v="Saúde"/>
+        <s v="Internet"/>
+        <s v="Telefone"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Valor (R$)" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="1500"/>
+    </cacheField>
+    <cacheField name="Grau de Importância" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Alto"/>
+        <s v="Médio"/>
+        <s v="Baixo"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <x v="0"/>
+    <n v="1500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="200"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="100"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="600"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="150"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="300"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="200"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="100"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="80"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8A311049-0230-4D32-A734-65DE2D59B6FE}" name="Tabela dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Valor (R$)" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67E5D48B-BD12-43A4-A4DE-EADDC5236EB1}" name="Tabela1" displayName="Tabela1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:C11" xr:uid="{6FFE33A3-D5BC-445E-A110-D66334C513BD}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F598D259-DB3C-4B3C-8EC1-62479673C063}" name="Nome da Despesa" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{297DE294-4ACF-4367-8A02-CAC087CA58AC}" name="Valor (R$)" dataDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{416378FD-D353-4795-BDD9-C629B8C7F30F}" name="Grau de Importância" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,140 +1910,267 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD47DD3-5B2D-4A7C-9E88-6BB456107A29}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>1500</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>200</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>100</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>600</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>150</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>300</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>200</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>100</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>80</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="8">
         <v>50</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB1DE31-F3C8-4C29-9654-A10969512A52}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="12">
+        <v>3280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>